--- a/analysis3.xlsx
+++ b/analysis3.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,16 +370,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1071</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>persons at risk at start of year 2012-2022 with 365d prior observation</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -387,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,15 +415,15 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emergency room visits (0Pe, 0Era)</t>
+          <t>Bronchitis or Bronchiolitis</t>
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -459,20 +449,20 @@
         </is>
       </c>
       <c r="C5">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (1Ps, 0Era, 365W)</t>
+          <t>Composite Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia</t>
         </is>
       </c>
       <c r="C6">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -503,11 +493,11 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acquired Pure Red Cell Aplasia</t>
+          <t>Attention Deficit Hyperactivity Disorder indexed on diagnosis or treatment</t>
         </is>
       </c>
       <c r="C9">
@@ -516,63 +506,63 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Febrile Neutropenia or Neutropenic Fever</t>
+          <t>Acquired Pure Red Cell Aplasia</t>
         </is>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pancytopenia, Acquired</t>
+          <t>Febrile Neutropenia or Neutropenic Fever</t>
         </is>
       </c>
       <c r="C11">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Neutropenia or unspecified leukopenia</t>
+          <t>Pancytopenia, Acquired</t>
         </is>
       </c>
       <c r="C12">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia</t>
+          <t>Neutropenia or unspecified leukopenia</t>
         </is>
       </c>
       <c r="C13">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes</t>
+          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C14">
@@ -581,128 +571,128 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Sudden Cardiac arrest or cardiac death</t>
         </is>
       </c>
       <c r="C15">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis</t>
+          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
         </is>
       </c>
       <c r="C16">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sudden Cardiac arrest or cardiac death</t>
+          <t>Progressive multifocal leukoencephalopathy</t>
         </is>
       </c>
       <c r="C17">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="C18">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Progressive multifocal leukoencephalopathy</t>
+          <t>Appendicitis (1Pe, 180Era)</t>
         </is>
       </c>
       <c r="C19">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Appendicitis (1Pe, 180Era)</t>
+          <t>Narcolepsy events</t>
         </is>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Narcolepsy events</t>
+          <t>Tinnitus</t>
         </is>
       </c>
       <c r="C21">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
+          <t>Dizziness or giddiness including motion sickness and vertigo</t>
         </is>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Emergency room visits or code</t>
+          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
         </is>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI, in persons with chronic kidney disease</t>
+          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
         </is>
       </c>
       <c r="C24">
@@ -711,37 +701,37 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
         </is>
       </c>
       <c r="C25">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sudden Vision Loss</t>
+          <t>Acute gastrointestinal bleeding or perforation events</t>
         </is>
       </c>
       <c r="C26">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sudden Hearing Loss</t>
+          <t>Neurofibromatosis type 1 (FP)</t>
         </is>
       </c>
       <c r="C27">
@@ -750,24 +740,24 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
+          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
         </is>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 (FP)</t>
+          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
         </is>
       </c>
       <c r="C29">
@@ -776,11 +766,11 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
+          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
         </is>
       </c>
       <c r="C30">
@@ -789,11 +779,11 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
+          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
         </is>
       </c>
       <c r="C31">
@@ -802,128 +792,128 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
+          <t>Lower gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C32">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
+          <t>Acute Respiratory Failure among persons with no chronic respiratory failure</t>
         </is>
       </c>
       <c r="C33">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Inpatient Hospitalization By Site of care or type of service</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
+          <t>Pleural Effusion</t>
         </is>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ambulance utilization</t>
+          <t>Allergic disorder</t>
         </is>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI</t>
+          <t>Otalgia or Otitis</t>
         </is>
       </c>
       <c r="C37">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transverse myelitis indexed on diagnosis (1Ps, 0Era, 365W)</t>
+          <t>Bladder Outflow Obstruction</t>
         </is>
       </c>
       <c r="C38">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>691</v>
+        <v>402</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis</t>
+          <t>Ventilatory assist for respiratory findings with Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C39">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>692</v>
+        <v>403</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transverse myelitis indexed on diagnosis</t>
+          <t>Acute Respiratory Failure in inpatient or Emergency room</t>
         </is>
       </c>
       <c r="C40">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>693</v>
+        <v>410</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Acquired Neutropenia or unspecified leukopenia</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C41">
@@ -932,37 +922,37 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>694</v>
+        <v>417</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Appendicitis during Inpatient visit</t>
+          <t>Acute gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C42">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
+          <t>Endometriosis</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aplastic Anemia</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
       <c r="C44">
@@ -971,11 +961,11 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Endometriosis</t>
+          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C45">
@@ -984,37 +974,37 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C46">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C47">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>All events of Acute Kidney Injury (AKI)</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C48">
@@ -1023,37 +1013,37 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>All events of Anaphylaxis, Mini-Sentinel</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
       <c r="C49">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Angioedemal</t>
+          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C50">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="C51">
@@ -1062,24 +1052,24 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C52">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>All events Acute pancreatitis, indexed on visit with NO chronic or hereditary pancreatitis</t>
+          <t>Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C53">
@@ -1088,11 +1078,11 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,50 +1091,50 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C55">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="C56">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
       <c r="C57">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,11 +1143,11 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,50 +1156,50 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Neutropenic Fever, Inpatient or ER, indexed on fever or Infection, 90 days era</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C60">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Firearm Accidents (FA)</t>
         </is>
       </c>
       <c r="C61">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
+          <t>Motor Vehicle Accidents (MVA)</t>
         </is>
       </c>
       <c r="C62">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension (PAH)</t>
+          <t>Down Syndrome</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,11 +1208,11 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Non-infectious uveitis and iridocyclitis</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,11 +1221,11 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Parasomnia or Sleep dysfunction with arousal disturbance</t>
+          <t>Cystic Fibrosis</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,11 +1234,11 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis identified during the inpatient or emergency room SNOMED concept</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,11 +1247,11 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pulmonary Hypertension</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C67">
@@ -1270,11 +1260,11 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C68">
@@ -1283,11 +1273,11 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
         </is>
       </c>
       <c r="C69">
@@ -1296,11 +1286,11 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Endothelin receptor antagonists</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,11 +1299,11 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,11 +1312,11 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,11 +1325,11 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,11 +1338,11 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,11 +1351,11 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Firearm Accidents (FA)</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,11 +1364,11 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Motor Vehicle Accidents (MVA)</t>
+          <t>Sickle Cell Anemia</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,11 +1377,11 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Down Syndrome</t>
+          <t>Scleroderma</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,11 +1390,11 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Non-infectious uveitis and iridocyclitis</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,11 +1403,11 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cystic Fibrosis</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,11 +1416,11 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,11 +1429,11 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
+          <t>Congenital Heart Disease</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,11 +1442,11 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Portal Hypertension</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,11 +1455,11 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,11 +1468,11 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Endothelin receptor antagonists</t>
+          <t>Antisynthetase syndrome</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,11 +1481,11 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
+          <t>Mixed connective tissue disease</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,11 +1494,11 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
+          <t>Undifferentiated connective tissue disease</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,11 +1507,11 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Overlap syndrome</t>
         </is>
       </c>
       <c r="C87">
@@ -1530,11 +1520,11 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,11 +1533,11 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>Antiphospholipid syndrome</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,11 +1546,11 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sickle Cell Anemia</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,11 +1559,11 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>Non-small cell lung cancer (NSCLC)</t>
         </is>
       </c>
       <c r="C91">
@@ -1582,11 +1572,11 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Lung cancer</t>
         </is>
       </c>
       <c r="C92">
@@ -1595,11 +1585,11 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Breast cancer</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,11 +1598,11 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Glioblastoma multiforme (GBM)</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,11 +1611,11 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Congenital Heart Disease</t>
+          <t>Colorectal Cancer</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,11 +1624,11 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Portal Hypertension</t>
+          <t>Multiple Myeloma</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,11 +1637,11 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
         </is>
       </c>
       <c r="C97">
@@ -1660,11 +1650,11 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Antisynthetase syndrome</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
         </is>
       </c>
       <c r="C98">
@@ -1673,11 +1663,11 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mixed connective tissue disease</t>
+          <t>Antineoplastic drugs against colorectal cancer</t>
         </is>
       </c>
       <c r="C99">
@@ -1686,11 +1676,11 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Undifferentiated connective tissue disease</t>
+          <t>Potential curative surgery for colorectal cancer</t>
         </is>
       </c>
       <c r="C100">
@@ -1699,11 +1689,11 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Overlap syndrome</t>
+          <t>Radiotherapy against colorectal cancer</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,11 +1702,11 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
+          <t>Primary adenocarcinoma of the colon or rectum</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,11 +1715,11 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Antiphospholipid syndrome</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,11 +1728,11 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Fascial dehiscence and evisceration</t>
         </is>
       </c>
       <c r="C104">
@@ -1751,11 +1741,11 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pulmonary endarterectomy</t>
+          <t>Anastomotic leak or dehiscence</t>
         </is>
       </c>
       <c r="C105">
@@ -1764,11 +1754,11 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Balloon Pulmonary Angioplasty</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C106">
@@ -1777,11 +1767,11 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Skin Burns</t>
+          <t>Intraabdominal abscess</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,11 +1780,11 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Non-small cell lung cancer (NSCLC)</t>
+          <t>Perioperative aspiration</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,11 +1793,11 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lung cancer</t>
+          <t>Postoperative hemorrhage</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,11 +1806,11 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Breast cancer</t>
+          <t>Surgical wound infection (narrow)</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,11 +1819,11 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Glioblastoma multiforme (GBM)</t>
+          <t>Distant metastasis following colorectal cancer (wide)</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,11 +1832,11 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Colorectal Cancer</t>
+          <t>Local recurrence after colorectal cancer</t>
         </is>
       </c>
       <c r="C112">
@@ -1855,11 +1845,11 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Multiple Myeloma</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C113">
@@ -1868,11 +1858,11 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
+          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,11 +1871,11 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C115">
@@ -1894,11 +1884,11 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hemorrhage of digestive system</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C116">
@@ -1907,11 +1897,11 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Antineoplastic drugs against colorectal cancer</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C117">
@@ -1920,11 +1910,11 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Potential curative surgery for colorectal cancer</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
         </is>
       </c>
       <c r="C118">
@@ -1933,11 +1923,11 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Radiotherapy against colorectal cancer</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
         </is>
       </c>
       <c r="C119">
@@ -1946,11 +1936,11 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C120">
@@ -1959,11 +1949,11 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C121">
@@ -1972,11 +1962,11 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fascial dehiscence and evisceration</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
         </is>
       </c>
       <c r="C122">
@@ -1985,11 +1975,11 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Anastomotic leak or dehiscence</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C123">
@@ -1998,11 +1988,11 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Primary adenocarcinoma of colon</t>
         </is>
       </c>
       <c r="C124">
@@ -2011,11 +2001,11 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Intraabdominal abscess</t>
+          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C125">
@@ -2024,11 +2014,11 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Perioperative aspiration</t>
+          <t>Primary adenocarcinoma of colon surgical treatment</t>
         </is>
       </c>
       <c r="C126">
@@ -2037,11 +2027,11 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Postoperative hemorrhage</t>
+          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C127">
@@ -2050,11 +2040,11 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Surgical wound infection (narrow)</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,11 +2053,11 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (wide)</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,11 +2066,11 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Local recurrence after colorectal cancer</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C130">
@@ -2089,11 +2079,11 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C131">
@@ -2102,11 +2092,11 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C132">
@@ -2115,11 +2105,11 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C133">
@@ -2128,11 +2118,11 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C134">
@@ -2141,11 +2131,11 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C135">
@@ -2154,11 +2144,11 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
+          <t>Primary adenocarcinoma of rectum</t>
         </is>
       </c>
       <c r="C136">
@@ -2167,11 +2157,11 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C137">
@@ -2180,11 +2170,11 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C138">
@@ -2193,11 +2183,11 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C139">
@@ -2206,11 +2196,11 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C140">
@@ -2219,11 +2209,11 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
+          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C141">
@@ -2232,11 +2222,11 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C142">
@@ -2245,11 +2235,11 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
         </is>
       </c>
       <c r="C143">
@@ -2258,11 +2248,11 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon surgical treatment</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C144">
@@ -2271,11 +2261,11 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C145">
@@ -2284,11 +2274,11 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Primary adenocarcinoma of rectum surgical treatment</t>
         </is>
       </c>
       <c r="C146">
@@ -2297,11 +2287,11 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
+          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C147">
@@ -2310,11 +2300,11 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C148">
@@ -2323,11 +2313,11 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Intraabdominal obstruction</t>
         </is>
       </c>
       <c r="C149">
@@ -2336,11 +2326,11 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
+          <t>Surgical wound infection (broad)</t>
         </is>
       </c>
       <c r="C150">
@@ -2349,11 +2339,11 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
+          <t>Distant metastasis following colorectal cancer (medium)</t>
         </is>
       </c>
       <c r="C151">
@@ -2362,11 +2352,11 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Distant metastasis following colorectal cancer (narrow)</t>
         </is>
       </c>
       <c r="C152">
@@ -2375,11 +2365,11 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Earliest event of Migraine, including history of migraine</t>
         </is>
       </c>
       <c r="C153">
@@ -2388,11 +2378,11 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum</t>
+          <t>Earliest event of Migraine</t>
         </is>
       </c>
       <c r="C154">
@@ -2401,11 +2391,11 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="C155">
@@ -2414,11 +2404,11 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
       <c r="C156">
@@ -2427,11 +2417,11 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
       <c r="C157">
@@ -2440,11 +2430,11 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
       <c r="C158">
@@ -2453,11 +2443,11 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
       <c r="C159">
@@ -2466,11 +2456,11 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Cognitive impairment, incident</t>
         </is>
       </c>
       <c r="C160">
@@ -2479,11 +2469,11 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
+          <t>Earliest event of Dementia</t>
         </is>
       </c>
       <c r="C161">
@@ -2492,11 +2482,11 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
+          <t>Non-Emergent Major Non Cardiac Surgery</t>
         </is>
       </c>
       <c r="C162">
@@ -2505,11 +2495,11 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
+          <t>AAA repair</t>
         </is>
       </c>
       <c r="C163">
@@ -2518,11 +2508,11 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum surgical treatment</t>
+          <t>Lower Extremity Bypass</t>
         </is>
       </c>
       <c r="C164">
@@ -2531,11 +2521,11 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
+          <t>Carotid Endarterectomy</t>
         </is>
       </c>
       <c r="C165">
@@ -2544,11 +2534,11 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Lung Resection</t>
         </is>
       </c>
       <c r="C166">
@@ -2557,11 +2547,11 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Intraabdominal obstruction</t>
+          <t>Esophagectomy</t>
         </is>
       </c>
       <c r="C167">
@@ -2570,11 +2560,11 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Surgical wound infection (broad)</t>
+          <t>Pancreatectomy</t>
         </is>
       </c>
       <c r="C168">
@@ -2583,11 +2573,11 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (medium)</t>
+          <t>Colectomy</t>
         </is>
       </c>
       <c r="C169">
@@ -2596,11 +2586,11 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (narrow)</t>
+          <t>Cystectomy</t>
         </is>
       </c>
       <c r="C170">
@@ -2609,11 +2599,11 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine, including history of migraine</t>
+          <t>Nephrectomy</t>
         </is>
       </c>
       <c r="C171">
@@ -2622,11 +2612,11 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine</t>
+          <t>Coronary Artery Bypass Graft Surgery</t>
         </is>
       </c>
       <c r="C172">
@@ -2635,11 +2625,11 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Aortic or Mitral Valve Repair or Replacement'</t>
         </is>
       </c>
       <c r="C173">
@@ -2648,11 +2638,11 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
         </is>
       </c>
       <c r="C174">
@@ -2661,11 +2651,11 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
         </is>
       </c>
       <c r="C175">
@@ -2674,24 +2664,24 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
+          <t>Acute myocardial infarction events</t>
         </is>
       </c>
       <c r="C176">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Persons with decreased libido</t>
         </is>
       </c>
       <c r="C177">
@@ -2700,89 +2690,89 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cognitive impairment, incident</t>
+          <t>Diarrhea events</t>
         </is>
       </c>
       <c r="C178">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Earliest event of Dementia</t>
+          <t>Gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C179">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Non-Emergent Major Non Cardiac Surgery</t>
+          <t>Hyponatremia events</t>
         </is>
       </c>
       <c r="C180">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AAA repair</t>
+          <t>Hypotension events</t>
         </is>
       </c>
       <c r="C181">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass</t>
+          <t>Nausea events</t>
         </is>
       </c>
       <c r="C182">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
       <c r="C183">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lung Resection</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,63 +2781,63 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Esophagectomy</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C185">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pancreatectomy</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C186">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Colectomy</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C187">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cystectomy</t>
+          <t>Acute renal failure events</t>
         </is>
       </c>
       <c r="C188">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nephrectomy</t>
+          <t>Persons with anemia</t>
         </is>
       </c>
       <c r="C189">
@@ -2856,11 +2846,11 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Coronary Artery Bypass Graft Surgery</t>
+          <t>Persons with anxiety</t>
         </is>
       </c>
       <c r="C190">
@@ -2869,11 +2859,11 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Aortic or Mitral Valve Repair or Replacement'</t>
+          <t>Persons with bradycardia</t>
         </is>
       </c>
       <c r="C191">
@@ -2882,11 +2872,11 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
+          <t>Person with cardiac arrhythmia</t>
         </is>
       </c>
       <c r="C192">
@@ -2895,37 +2885,37 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C193">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction events</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C194">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Persons with decreased libido</t>
+          <t>Persons with chest pain or angina</t>
         </is>
       </c>
       <c r="C195">
@@ -2934,11 +2924,11 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>884</v>
+        <v>923</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Diarrhea events</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C196">
@@ -2947,37 +2937,37 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding events</t>
+          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>889</v>
+        <v>925</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Hyponatremia events</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C198">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>890</v>
+        <v>927</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Hypotension events</t>
+          <t>Persons with dementia</t>
         </is>
       </c>
       <c r="C199">
@@ -2986,11 +2976,11 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>891</v>
+        <v>928</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nausea events</t>
+          <t>Persons with depression</t>
         </is>
       </c>
       <c r="C200">
@@ -2999,11 +2989,11 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>892</v>
+        <v>929</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C201">
@@ -3012,11 +3002,11 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>893</v>
+        <v>930</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C202">
@@ -3025,24 +3015,24 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>894</v>
+        <v>931</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C203">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C204">
@@ -3051,50 +3041,50 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C205">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>898</v>
+        <v>934</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Acute renal failure events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C206">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>899</v>
+        <v>935</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>All-cause mortality</t>
+          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
         </is>
       </c>
       <c r="C207">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>900</v>
+        <v>936</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Anaphylactoid reaction events</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C208">
@@ -3103,50 +3093,50 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>901</v>
+        <v>940</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Persons with anemia</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C209">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Persons with anxiety</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C210">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Persons with bradycardia</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C211">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Persons with impotence</t>
         </is>
       </c>
       <c r="C212">
@@ -3155,11 +3145,11 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Ischemic stroke events</t>
         </is>
       </c>
       <c r="C213">
@@ -3168,11 +3158,11 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
         </is>
       </c>
       <c r="C214">
@@ -3181,11 +3171,11 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Persons with chest pain or angina</t>
+          <t>Persons with measured renal dysfunction</t>
         </is>
       </c>
       <c r="C215">
@@ -3194,11 +3184,11 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>923</v>
+        <v>947</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Persons with neutropenia or agranulocytosis</t>
         </is>
       </c>
       <c r="C216">
@@ -3207,63 +3197,63 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
+          <t>Rash events</t>
         </is>
       </c>
       <c r="C217">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Rhabdomyolysis events</t>
         </is>
       </c>
       <c r="C218">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Persons with dementia</t>
+          <t>Sudden cardiac death events in inpatient</t>
         </is>
       </c>
       <c r="C219">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>928</v>
+        <v>954</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Persons with depression</t>
+          <t>Syncope events</t>
         </is>
       </c>
       <c r="C220">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Persons with thrombocytopenia</t>
         </is>
       </c>
       <c r="C221">
@@ -3272,24 +3262,24 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Transient ischemic attack events</t>
         </is>
       </c>
       <c r="C222">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>931</v>
+        <v>957</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Persons with type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C223">
@@ -3298,24 +3288,24 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>932</v>
+        <v>963</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Vomiting events</t>
         </is>
       </c>
       <c r="C224">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>933</v>
+        <v>964</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
         </is>
       </c>
       <c r="C225">
@@ -3324,24 +3314,24 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>934</v>
+        <v>965</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C226">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C227">
@@ -3350,50 +3340,50 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Persons with hepatic failure</t>
+          <t>Glycemic control</t>
         </is>
       </c>
       <c r="C228">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>937</v>
+        <v>982</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure2</t>
+          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
         </is>
       </c>
       <c r="C229">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Acute pancreatitis2</t>
         </is>
       </c>
       <c r="C230">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>939</v>
+        <v>989</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hospitalization with preinfarction syndrome events</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
       <c r="C231">
@@ -3402,24 +3392,24 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>940</v>
+        <v>990</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hyperkalemia events</t>
+          <t>Bone Fracture</t>
         </is>
       </c>
       <c r="C232">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>941</v>
+        <v>991</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Hypokalemia events</t>
+          <t>Breast cancer Malignant tumor of breast</t>
         </is>
       </c>
       <c r="C233">
@@ -3428,128 +3418,128 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>942</v>
+        <v>992</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Hypomagnesemia events</t>
+          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
         </is>
       </c>
       <c r="C234">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>943</v>
+        <v>993</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Persons with impotence</t>
+          <t>Diarrhea3</t>
         </is>
       </c>
       <c r="C235">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>944</v>
+        <v>994</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ischemic stroke events</t>
+          <t>Genitourinary infection3</t>
         </is>
       </c>
       <c r="C236">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C237">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>946</v>
+        <v>997</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Persons with measured renal dysfunction</t>
+          <t>Hypotension</t>
         </is>
       </c>
       <c r="C238">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Persons with neutropenia or agranulocytosis</t>
+          <t>Joint pain3</t>
         </is>
       </c>
       <c r="C239">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>948</v>
+        <v>1000</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Rash events</t>
+          <t>Nausea3</t>
         </is>
       </c>
       <c r="C240">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>950</v>
+        <v>1001</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis events</t>
+          <t>Peripheral edema</t>
         </is>
       </c>
       <c r="C241">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>953</v>
+        <v>1002</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sudden cardiac death events</t>
+          <t>Photosensitivity</t>
         </is>
       </c>
       <c r="C242">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>954</v>
+        <v>1003</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Syncope events</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C243">
@@ -3558,11 +3548,11 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>955</v>
+        <v>1004</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Persons with thrombocytopenia</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C244">
@@ -3571,37 +3561,37 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>956</v>
+        <v>1005</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Venous thromboembolism</t>
         </is>
       </c>
       <c r="C245">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>Vomiting</t>
         </is>
       </c>
       <c r="C246">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Vomiting events</t>
+          <t>Earliest event of Epilepsy</t>
         </is>
       </c>
       <c r="C247">
@@ -3610,11 +3600,11 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>964</v>
+        <v>1009</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
         </is>
       </c>
       <c r="C248">
@@ -3623,76 +3613,76 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
         </is>
       </c>
       <c r="C249">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>967</v>
+        <v>1011</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Earliest event of Marginal zone lymphoma</t>
         </is>
       </c>
       <c r="C250">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>969</v>
+        <v>1012</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction2</t>
+          <t>Earliest event of Waldenstrom macroglobulinemia</t>
         </is>
       </c>
       <c r="C251">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>970</v>
+        <v>1013</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>4-point MACE2</t>
+          <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
       </c>
       <c r="C252">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>975</v>
+        <v>1015</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Acute renal failure2</t>
+          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="C253">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Glycemic control2</t>
+          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
         </is>
       </c>
       <c r="C254">
@@ -3701,11 +3691,11 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>979</v>
+        <v>1017</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure3</t>
+          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
         </is>
       </c>
       <c r="C255">
@@ -3714,11 +3704,11 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>980</v>
+        <v>1018</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Revascularization</t>
+          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
         </is>
       </c>
       <c r="C256">
@@ -3727,37 +3717,37 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>982</v>
+        <v>1019</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Stroke2</t>
+          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
         </is>
       </c>
       <c r="C257">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>983</v>
+        <v>1020</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sudden cardiac death2</t>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
         </is>
       </c>
       <c r="C258">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>984</v>
+        <v>1021</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Abnormal weight gain2</t>
+          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
         </is>
       </c>
       <c r="C259">
@@ -3766,11 +3756,11 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>985</v>
+        <v>1022</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Abnormal weight loss2</t>
+          <t>Earliest event of Depressive and Sleep Disorder</t>
         </is>
       </c>
       <c r="C260">
@@ -3779,24 +3769,24 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acute pancreatitis2</t>
+          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
         </is>
       </c>
       <c r="C261">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>988</v>
+        <v>1024</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>All-cause mortality3</t>
+          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
         </is>
       </c>
       <c r="C262">
@@ -3805,11 +3795,11 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>989</v>
+        <v>1025</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Bladder cancer3</t>
+          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
         </is>
       </c>
       <c r="C263">
@@ -3818,11 +3808,11 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>990</v>
+        <v>1026</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Bone fracture3</t>
+          <t>Earliest Event of Multiple Sclerosis</t>
         </is>
       </c>
       <c r="C264">
@@ -3831,11 +3821,11 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>991</v>
+        <v>1027</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Breast cancer3</t>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
         </is>
       </c>
       <c r="C265">
@@ -3844,24 +3834,24 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>992</v>
+        <v>1028</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis3</t>
+          <t>Earliest event of Urothelial carcinoma</t>
         </is>
       </c>
       <c r="C266">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>993</v>
+        <v>1029</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Diarrhea3</t>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
         </is>
       </c>
       <c r="C267">
@@ -3870,11 +3860,11 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>994</v>
+        <v>1030</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Genitourinary infection3</t>
+          <t>Earliest event of Prostate cancer, among adult males</t>
         </is>
       </c>
       <c r="C268">
@@ -3883,11 +3873,11 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>995</v>
+        <v>1031</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Hyperkalemia3</t>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
         </is>
       </c>
       <c r="C269">
@@ -3896,11 +3886,11 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>996</v>
+        <v>1032</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Hypoglycemia3</t>
+          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
         </is>
       </c>
       <c r="C270">
@@ -3909,11 +3899,11 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Hypotension3</t>
+          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
         </is>
       </c>
       <c r="C271">
@@ -3922,11 +3912,11 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>998</v>
+        <v>1035</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Joint pain3</t>
+          <t>New users of Thiazide diuretics</t>
         </is>
       </c>
       <c r="C272">
@@ -3935,24 +3925,24 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>999</v>
+        <v>1036</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Lower extremity amputation3</t>
+          <t>New users of Beta blockers</t>
         </is>
       </c>
       <c r="C273">
-        <v>999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1000</v>
+        <v>1037</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Nausea3</t>
+          <t>New users of SGLT2 inhibitor</t>
         </is>
       </c>
       <c r="C274">
@@ -3961,11 +3951,11 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>1001</v>
+        <v>1038</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Peripheral edema3</t>
+          <t>New users of GLP-1 receptor antagonists</t>
         </is>
       </c>
       <c r="C275">
@@ -3974,11 +3964,11 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>1002</v>
+        <v>1039</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Photosensitivity3</t>
+          <t>New users of DPP-4 inhibitors</t>
         </is>
       </c>
       <c r="C276">
@@ -3987,11 +3977,11 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>1003</v>
+        <v>1040</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Renal cancer3</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
         </is>
       </c>
       <c r="C277">
@@ -4000,11 +3990,11 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>1004</v>
+        <v>1041</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Thyroid tumor3</t>
+          <t>New users of JAK inhibitors</t>
         </is>
       </c>
       <c r="C278">
@@ -4013,11 +4003,11 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>1005</v>
+        <v>1042</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Venous thromboembolism3</t>
+          <t>New users of IL-23 inhibitors</t>
         </is>
       </c>
       <c r="C279">
@@ -4026,11 +4016,11 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Vomiting3</t>
+          <t>New users of Fluoroquinolone systemic</t>
         </is>
       </c>
       <c r="C280">
@@ -4039,11 +4029,11 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>1007</v>
+        <v>1044</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>New users of Cephalosporin systemetic</t>
         </is>
       </c>
       <c r="C281">
@@ -4052,11 +4042,11 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>New users of Trimethoprim systemetic</t>
         </is>
       </c>
       <c r="C282">
@@ -4065,11 +4055,11 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>1010</v>
+        <v>1046</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
+          <t>New users of Thiazide diuretics nested in essential hypertension</t>
         </is>
       </c>
       <c r="C283">
@@ -4078,11 +4068,11 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>1011</v>
+        <v>1047</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C284">
@@ -4091,11 +4081,11 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>1012</v>
+        <v>1048</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Earliest event of Waldenstrom macroglobulinemia</t>
+          <t>New users of dihydropyridine calcium channel blockers</t>
         </is>
       </c>
       <c r="C285">
@@ -4104,11 +4094,11 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>New users of Beta blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C286">
@@ -4117,11 +4107,11 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
+          <t>New users of Beta blockers nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C287">
@@ -4130,11 +4120,11 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
+          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C288">
@@ -4143,11 +4133,11 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
+          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
         </is>
       </c>
       <c r="C289">
@@ -4156,11 +4146,11 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
+          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C290">
@@ -4169,11 +4159,11 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
+          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C291">
@@ -4182,11 +4172,11 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>1020</v>
+        <v>1055</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C292">
@@ -4195,11 +4185,11 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>1021</v>
+        <v>1056</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
+          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
         </is>
       </c>
       <c r="C293">
@@ -4208,11 +4198,11 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>1022</v>
+        <v>1057</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Earliest event of Depressive and Sleep Disorder</t>
+          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
       <c r="C294">
@@ -4221,11 +4211,11 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>1023</v>
+        <v>1058</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
       <c r="C295">
@@ -4234,11 +4224,11 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>1024</v>
+        <v>1059</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
         </is>
       </c>
       <c r="C296">
@@ -4247,11 +4237,11 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>1025</v>
+        <v>1060</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
+          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C297">
@@ -4260,11 +4250,11 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>1026</v>
+        <v>1061</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C298">
@@ -4273,11 +4263,11 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>1027</v>
+        <v>1062</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C299">
@@ -4286,11 +4276,11 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>1028</v>
+        <v>1063</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Earliest event of Urothelial carcinoma</t>
+          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C300">
@@ -4299,11 +4289,11 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>1029</v>
+        <v>1064</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
+          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C301">
@@ -4312,11 +4302,11 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>1030</v>
+        <v>1065</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
+          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C302">
@@ -4325,11 +4315,11 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>1031</v>
+        <v>1066</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
         </is>
       </c>
       <c r="C303">
@@ -4338,11 +4328,11 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>1032</v>
+        <v>1067</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
       <c r="C304">
@@ -4351,11 +4341,11 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
       <c r="C305">
@@ -4364,11 +4354,11 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
         </is>
       </c>
       <c r="C306">
@@ -4377,11 +4367,11 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>1035</v>
+        <v>1070</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics</t>
+          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
         </is>
       </c>
       <c r="C307">
@@ -4390,11 +4380,11 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>New users of Beta blockers</t>
+          <t>Cytomegalovirus CMV Anterior Uveitis</t>
         </is>
       </c>
       <c r="C308">
@@ -4403,704 +4393,28 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor</t>
+          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
         </is>
       </c>
       <c r="C309">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists</t>
+          <t>Serious Infection</t>
         </is>
       </c>
       <c r="C310">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311">
-        <v>1039</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>New users of DPP-4 inhibitors</t>
-        </is>
-      </c>
-      <c r="C311">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312">
-        <v>1040</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
-        </is>
-      </c>
-      <c r="C312">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313">
-        <v>1041</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors</t>
-        </is>
-      </c>
-      <c r="C313">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314">
-        <v>1042</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>New users of IL-23 inhibitors</t>
-        </is>
-      </c>
-      <c r="C314">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315">
-        <v>1043</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic</t>
-        </is>
-      </c>
-      <c r="C315">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316">
-        <v>1044</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic</t>
-        </is>
-      </c>
-      <c r="C316">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317">
-        <v>1045</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic</t>
-        </is>
-      </c>
-      <c r="C317">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318">
-        <v>1046</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
-        </is>
-      </c>
-      <c r="C318">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319">
-        <v>1047</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
-        </is>
-      </c>
-      <c r="C319">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320">
-        <v>1048</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
-        </is>
-      </c>
-      <c r="C320">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321">
-        <v>1049</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
-        </is>
-      </c>
-      <c r="C321">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322">
-        <v>1050</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
-        </is>
-      </c>
-      <c r="C322">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323">
-        <v>1051</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
-        </is>
-      </c>
-      <c r="C323">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324">
-        <v>1052</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
-        </is>
-      </c>
-      <c r="C324">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325">
-        <v>1053</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-      <c r="C325">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326">
-        <v>1054</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-      <c r="C326">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327">
-        <v>1055</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-      <c r="C327">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328">
-        <v>1056</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
-        </is>
-      </c>
-      <c r="C328">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329">
-        <v>1057</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
-        </is>
-      </c>
-      <c r="C329">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330">
-        <v>1058</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
-        </is>
-      </c>
-      <c r="C330">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331">
-        <v>1059</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
-        </is>
-      </c>
-      <c r="C331">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332">
-        <v>1060</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-      <c r="C332">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333">
-        <v>1061</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-      <c r="C333">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334">
-        <v>1062</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-      <c r="C334">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335">
-        <v>1063</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-      <c r="C335">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336">
-        <v>1064</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-      <c r="C336">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337">
-        <v>1065</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-      <c r="C337">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338">
-        <v>1066</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
-        </is>
-      </c>
-      <c r="C338">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339">
-        <v>1067</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
-        </is>
-      </c>
-      <c r="C339">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340">
-        <v>1068</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
-        </is>
-      </c>
-      <c r="C340">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341">
-        <v>1069</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
-        </is>
-      </c>
-      <c r="C341">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342">
-        <v>1070</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
-        </is>
-      </c>
-      <c r="C342">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343">
-        <v>1072</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Cytomegalovirus CMV Anterior Uveitis</t>
-        </is>
-      </c>
-      <c r="C343">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344">
-        <v>1073</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
-        </is>
-      </c>
-      <c r="C344">
         <v>90</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345">
-        <v>1074</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Serious Infection</t>
-        </is>
-      </c>
-      <c r="C345">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346">
-        <v>1075</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Narcolepsy</t>
-        </is>
-      </c>
-      <c r="C346">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347">
-        <v>1076</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Anaphylaxis</t>
-        </is>
-      </c>
-      <c r="C347">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348">
-        <v>1077</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Anaphylaxis v2</t>
-        </is>
-      </c>
-      <c r="C348">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349">
-        <v>1078</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Bells Palsy</t>
-        </is>
-      </c>
-      <c r="C349">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350">
-        <v>1079</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Encephalomyelitis</t>
-        </is>
-      </c>
-      <c r="C350">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351">
-        <v>1080</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Guillain Barre Syndrome</t>
-        </is>
-      </c>
-      <c r="C351">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352">
-        <v>1081</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction</t>
-        </is>
-      </c>
-      <c r="C352">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353">
-        <v>1082</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Myocarditis Pericarditis</t>
-        </is>
-      </c>
-      <c r="C353">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354">
-        <v>1083</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
-        </is>
-      </c>
-      <c r="C354">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355">
-        <v>1084</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Disseminated Intravascular Coagulation</t>
-        </is>
-      </c>
-      <c r="C355">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356">
-        <v>1085</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Appendicitis</t>
-        </is>
-      </c>
-      <c r="C356">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357">
-        <v>1086</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Transverse Myelitis</t>
-        </is>
-      </c>
-      <c r="C357">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358">
-        <v>1087</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Hemorrhagic Stroke</t>
-        </is>
-      </c>
-      <c r="C358">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359">
-        <v>1088</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
-        </is>
-      </c>
-      <c r="C359">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360">
-        <v>1089</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Non-hemorrhagic Stroke</t>
-        </is>
-      </c>
-      <c r="C360">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361">
-        <v>1090</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
-      </c>
-      <c r="C361">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362">
-        <v>1091</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>Thrombosis with Thrombocytopenia (TWT)</t>
-        </is>
-      </c>
-      <c r="C362">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
